--- a/tmf/src/test/UnitTestData/Database/setWherePk/TestCase001/InTestClass.xlsx
+++ b/tmf/src/test/UnitTestData/Database/setWherePk/TestCase001/InTestClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasu1\workspace\java\unitTest\tmf\src\test\UnitTestData\Database\setWherePk\TestCase001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C889A4-5264-4E1D-8CCF-755BAEA19543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69AF8DB-B5E6-452A-84B5-04F85025BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>deleteSql</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deleteSql anderson</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>aaa[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eee[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fff[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ggg[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hhh[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iii[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jjj[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kkk[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lll[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmm[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>third</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -39,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,14 +108,6 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -80,20 +128,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -390,22 +434,108 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="4"/>
+      <c r="B2">
+        <v>301</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>303</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>305.5</v>
+      </c>
+    </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="5"/>
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>306.60000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>307.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
